--- a/similarities/split_global/harmonic_similarity_timestamps_367.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_367.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:27.660000', '0:01:36.720000'), ('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:20.080000', '0:00:23.800000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.260000', '0:00:15.940000'), ('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:03:58.720000', '0:04:14.260000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=20.08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=238.72</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['A', 'E', 'A', 'E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:49.480000', '0:01:02.360000')]</t>
+          <t>('0:02:06.506000', '0:02:35.976000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
+          <t>('0:01:12.361451', '0:01:40.829115')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=49.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=126.506</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=72.361451</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F:7']]</t>
+          <t>['B/5', 'B:min/5', 'F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:7']]</t>
+          <t>['A#', 'A#:min', 'F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:41.770000', '0:00:54.590000')]</t>
+          <t>('0:00:01.829138', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:05.780000', '0:01:17.760000')]</t>
+          <t>('0:00:46.340000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=1.829138</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=46.34</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:00:48', '0:00:52.200000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:01:21.420000', '0:01:30.040000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['B', 'E', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:04.160000', '0:00:08.800000')]</t>
+          <t>('0:01:03.292358', '0:01:10.397664')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:03:31.700000', '0:03:34.600000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=4.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=63.292358</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=211.7</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>isophonics_219</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['C', 'F:min/C', 'C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['A', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:23.632675', '0:00:27.452358')]</t>
+          <t>('0:00:45.460000', '0:00:49.620000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:20.580000', '0:00:32.500000')]</t>
+          <t>('0:01:15.058526', '0:01:45.418616')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=45.46</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=20.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:59.900000', '0:01:09.840000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=59.9</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_165</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:min', 'Db'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'A#:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:21.980000'), ('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:00:50.460000', '0:00:54.480000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:57.700000', '0:01:06.060000'), ('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:00:18.780000', '0:00:24.560000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=17.48', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=50.46</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=57.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=18.78</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:24.160000', '0:01:32.420000')]</t>
+          <t>('0:00:19.000294', '0:00:29.309954')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:37.940000', '0:01:48.300000')]</t>
+          <t>('0:00:00.780000', '0:00:23.840000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=84.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=19.000294</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=97.94']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D', 'G', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+          <t>('0:02:03.220000', '0:02:07.580000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:30.500000', '0:00:41.370000')]</t>
+          <t>('0:00:46.932280', '0:00:57.636679')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=123.22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.5']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['B', 'E/5', 'B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:00:55.629773', '0:01:07.541609')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['B:7', 'E', 'A']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['D:7', 'G:maj', 'C:maj']]</t>
+          <t>['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:28.583470', '0:01:38.974002'), ('0:00:32.367960', '0:00:41.621112')]</t>
+          <t>('0:00:36.400000', '0:00:55.360000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:09.920000', '0:00:11.960000'), ('0:01:04.300000', '0:01:14.900000')]</t>
+          <t>('0:00:00.660000', '0:00:08.220000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=88.58347', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=32.36796']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=36.4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=64.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=0.66</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_93</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D'], ['D', 'G', 'D']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'G', 'C:maj'], ['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['C:hdim7/D#', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:33.431496', '0:00:38.307687'), ('0:00:03.044470', '0:00:11.035850')]</t>
+          <t>('0:00:21.820000', '0:00:28.320000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:32.808000', '0:00:36.091000'), ('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:14.580000', '0:00:21.140000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=33.431496', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=21.82</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=14.58</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'E/4'], ['E/4', 'D/5', 'A']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'F'], ['F/5', 'Eb/5', 'Bb']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:19.647000', '0:00:26.611000'), ('0:00:09.172000', '0:00:14.409000')]</t>
+          <t>('0:01:14.700000', '0:01:34.120000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:29.719863', '0:00:35.722222'), ('0:00:07.324217', '0:00:15.172562')]</t>
+          <t>('0:00:30.020000', '0:00:44.280000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=19.647', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=9.172']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=29.719863', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=7.324217']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=30.02</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['D:maj', 'G:min', 'C#:dim7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['Eb', 'Ab:min', 'D:dim7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:00:12.860000', '0:00:16.880000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:19.980000', '0:00:28.900000')]</t>
+          <t>('0:00:06.330000', '0:00:09.900000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=12.86</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=19.98']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=6.33</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
